--- a/src/assets/testfiles/delay.xlsx
+++ b/src/assets/testfiles/delay.xlsx
@@ -23,9 +23,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>j1</t>
+  </si>
+  <si>
+    <t>j2</t>
+  </si>
+  <si>
+    <t>j3</t>
+  </si>
+  <si>
+    <t>j4</t>
+  </si>
+  <si>
+    <t>j5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,13 +53,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,28 +370,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>12</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>13</v>
       </c>
     </row>
